--- a/public/primary_schools_sample.xlsx
+++ b/public/primary_schools_sample.xlsx
@@ -1,48 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/www/csc-web/public/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Koh Kong" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Kratie" sheetId="2" r:id="rId5"/>
+    <sheet name="Koh Kong" sheetId="1" r:id="rId1"/>
+    <sheet name="Kratie" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1">
+    <comment ref="A1" authorId="0">
       <text>
-        <t xml:space="preserve">You can insert all primary schools in all provinces here or separate province by another work sheet
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Must follow NCDD name in Englishhttp://db.ncdd.gov.kh/gazetteer/view/index.castle
 	-Sokly Heng</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C1">
+    <comment ref="B1" authorId="0">
       <text>
-        <t xml:space="preserve">Province, District, and Commune here is used only for your own information. It won't affect the record transaction.
-	-Sokly Heng</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E1">
-      <text>
-        <t xml:space="preserve">if school code present, then we will find for this code to update or create new record following this school code.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>if school code present, then we will find for this code to update or create new record following this school code.
 In case school code is not present, then the system will used the generate a new school code for this record following the format.
 commune_code_auto-increment_id_from_previous_commune_code
 e.g: commune code is 090101 -&gt; and this school is the first in this commune -&gt;
 school code is 090101_1
 	-Sokly Heng</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D1">
-      <text>
-        <t xml:space="preserve">Must follow NCDD name in Englishhttp://db.ncdd.gov.kh/gazetteer/view/index.castle
-	-Sokly Heng</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -50,31 +68,39 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E1">
+    <comment ref="A1" authorId="0">
       <text>
-        <t xml:space="preserve">if school code present, then we will find for this code to update or create new record following this school code.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Must follow NCDD name in Englishhttp://db.ncdd.gov.kh/gazetteer/view/index.castle
+	-Sokly Heng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>if school code present, then we will find for this code to update or create new record following this school code.
 In case school code is not present, then the system will used the generate a new school code for this record following the format.
 commune_code_auto-increment_id_from_previous_commune_code
 e.g: commune code is 100101 -&gt; and this school is the first in this commune -&gt;
 school code is 100101_1
 	-Sokly Heng</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D1">
-      <text>
-        <t xml:space="preserve">Must follow NCDD name in Englishhttp://db.ncdd.gov.kh/gazetteer/view/index.castle
-	-Sokly Heng</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C1">
-      <text>
-        <t xml:space="preserve">Province, District, and Commune here is used only for your own information. It won't affect the record transaction.
-	-Sokly Heng</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -82,16 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Commune</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>commune_code</t>
   </si>
@@ -105,15 +122,6 @@
     <t>school_name_km</t>
   </si>
   <si>
-    <t>Koh Kong</t>
-  </si>
-  <si>
-    <t>Botum Sakor</t>
-  </si>
-  <si>
-    <t>Andoung Tuek</t>
-  </si>
-  <si>
     <t>090101</t>
   </si>
   <si>
@@ -142,12 +150,6 @@
   </si>
   <si>
     <t>តាមាក់</t>
-  </si>
-  <si>
-    <t>Kratie</t>
-  </si>
-  <si>
-    <t>Chhloung</t>
   </si>
   <si>
     <t>100101</t>
@@ -183,72 +185,68 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF172B4D"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF1D1C1D"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Battambang"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -256,84 +254,56 @@
         <bgColor rgb="FFF4F5F7"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -523,26 +493,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="18.14"/>
-    <col customWidth="1" min="5" max="5" width="17.0"/>
-    <col customWidth="1" min="6" max="6" width="20.71"/>
-    <col customWidth="1" min="7" max="7" width="19.86"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,228 +527,180 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="18.14"/>
-    <col customWidth="1" min="5" max="5" width="14.57"/>
-    <col customWidth="1" min="6" max="6" width="20.71"/>
-    <col customWidth="1" min="7" max="7" width="20.43"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>